--- a/OOP_Project/Agile - oop/Sprint-Backlog-Template.xlsx
+++ b/OOP_Project/Agile - oop/Sprint-Backlog-Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Third_year\OOP\Đồ án OOP\Agile - oop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Third_year\OOP\AppLearningEnglish\OOP_Project\Agile - oop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25368" windowHeight="15828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="15825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -74,16 +74,10 @@
     <t xml:space="preserve">Ứng dụng có giao diện kute theo kiểu Duolingo (Bảo lo) </t>
   </si>
   <si>
-    <t xml:space="preserve">Ứng dụng có chức năng tính điểm sau mỗi lần hoàn thành bài tập </t>
-  </si>
-  <si>
     <t xml:space="preserve">Người dùng có tthể tích lũy kinh nghiệm qua từng bài học </t>
   </si>
   <si>
     <t>Người dùng có thể xem thông tin cá nhân</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nghe nhạc khi học bài </t>
   </si>
   <si>
     <t>Bảo</t>
@@ -240,17 +234,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -357,7 +351,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint1!$F$21:$J$21</c:f>
+              <c:f>Sprint1!$F$17:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -471,7 +465,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>271780</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -784,24 +778,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="4" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -833,16 +827,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -851,13 +845,13 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D3" s="9"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -865,16 +859,16 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -883,13 +877,13 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -897,16 +891,16 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -915,13 +909,13 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -929,16 +923,16 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -947,13 +941,13 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -961,16 +955,16 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -979,13 +973,13 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -993,16 +987,16 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1011,13 +1005,13 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1025,16 +1019,16 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -1043,13 +1037,13 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1057,121 +1051,53 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <f>SUM(E2:E5)</f>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:J17" si="0">SUM(E2:E5)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="2">
-        <f>SUM(F2:F5)</f>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="2">
-        <f>SUM(G2:G5)</f>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="2">
-        <f>SUM(H2:H5)</f>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="2">
-        <f>SUM(I2:I5)</f>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="2">
-        <f>SUM(J2:J5)</f>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
+  <mergeCells count="14">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
@@ -1187,7 +1113,62 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -1361,61 +1342,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
@@ -1429,6 +1355,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1446,20 +1388,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>